--- a/SM168_candidates.xlsx
+++ b/SM168_candidates.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16040" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="1520" yWindow="460" windowWidth="28160" windowHeight="16040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
